--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.021124</v>
+        <v>0.09315466666666666</v>
       </c>
       <c r="N2">
-        <v>0.063372</v>
+        <v>0.279464</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01347701342133333</v>
+        <v>0.05943224261155555</v>
       </c>
       <c r="R2">
-        <v>0.121293120792</v>
+        <v>0.534890183504</v>
       </c>
       <c r="S2">
         <v>1</v>
